--- a/WBS-2.xlsx
+++ b/WBS-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
   <si>
     <t>DATE</t>
   </si>
@@ -227,13 +227,186 @@
   </si>
   <si>
     <t>Stand up meeting on Implementation of Agile methodology.</t>
+  </si>
+  <si>
+    <t>Week 8(Oct 31-Nov 6)</t>
+  </si>
+  <si>
+    <t>Week 7(Oct 23-Oct 30)</t>
+  </si>
+  <si>
+    <t>Week 9(Nov 7-Nov 13)</t>
+  </si>
+  <si>
+    <t>Week 10(Nov 14- Nov 20)</t>
+  </si>
+  <si>
+    <t>Week(Nov 21-Nov 27)</t>
+  </si>
+  <si>
+    <t>Deepavali Holidays</t>
+  </si>
+  <si>
+    <t>Karnataka Rajyotsava -Holiday</t>
+  </si>
+  <si>
+    <t>Preparation for lab internal assesment</t>
+  </si>
+  <si>
+    <t>Lab internal assesment</t>
+  </si>
+  <si>
+    <t>Preparation for third internal assesment</t>
+  </si>
+  <si>
+    <t>Third Internal assesment</t>
+  </si>
+  <si>
+    <t>Kanakadasa Jayanthi-Holiday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Literature survey- IEEE International Conference on Robotics and Automation……</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Robotics and Automation…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE International Conference on Robotics and Automation…..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE International Conference on Robotics and Automation</t>
+  </si>
+  <si>
+    <t>Literature survey -AlessioCarullo and marco parvis,iEEE</t>
+  </si>
+  <si>
+    <t>Literature survey -AlessioCarullo and marco parvis,iEEE…..</t>
+  </si>
+  <si>
+    <t>Literature Survey-Transactions on Robotics and automation , vol 13….</t>
+  </si>
+  <si>
+    <t>Literature Survey- International Journal of Computer Theory and Engineering Volume-2….</t>
+  </si>
+  <si>
+    <t>Surveying on Components</t>
+  </si>
+  <si>
+    <t>Surveying on relative for Ultrasonic sensor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study on  Realtive sensors over Ultrasonic Sensors </t>
+  </si>
+  <si>
+    <t>Study on efficiency of Ultrasonic sensors over relative sensors</t>
+  </si>
+  <si>
+    <t>Survey on Language used for Arduino Code</t>
+  </si>
+  <si>
+    <t>Purchase of Basic Components</t>
+  </si>
+  <si>
+    <t>Testing Arduino Board</t>
+  </si>
+  <si>
+    <t>Testing Ultrasonic sensor.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Survey on circuit building for sound module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Literature Survey on sound Module</t>
+  </si>
+  <si>
+    <t>Literature Survey on Camera Module</t>
+  </si>
+  <si>
+    <t>Survey on updations that can be done on Project</t>
+  </si>
+  <si>
+    <t>Building Basic Model of the Project</t>
+  </si>
+  <si>
+    <t>Note down the issue during Modeling</t>
+  </si>
+  <si>
+    <t>Note down the Drawbacks causing issues</t>
+  </si>
+  <si>
+    <t>Note down the issue during Modeling…</t>
+  </si>
+  <si>
+    <t>Building Basic Model of the Project…</t>
+  </si>
+  <si>
+    <t>Note down the Drawbacks causing issues…</t>
+  </si>
+  <si>
+    <t>Propose solution to the issues…</t>
+  </si>
+  <si>
+    <t>Propose solution to the issues</t>
+  </si>
+  <si>
+    <t>Presentation of Basic Project model</t>
+  </si>
+  <si>
+    <t>Presentation on Hardware used in Basic model</t>
+  </si>
+  <si>
+    <t>Presentation on Software used in Basic model</t>
+  </si>
+  <si>
+    <t>Presentation on Working of Components</t>
+  </si>
+  <si>
+    <t>Survey on Language used for Arduino Code…</t>
+  </si>
+  <si>
+    <t>Experimentation of Basic LED Blink Code on Arduino Board …</t>
+  </si>
+  <si>
+    <t>Survey on relative Language that can be used for arduino…</t>
+  </si>
+  <si>
+    <t>Experimentation of both Motion and Ultrasonic sensors on arduino…</t>
+  </si>
+  <si>
+    <t>Experimentation of Basic LED Blink Code on Arduino Board</t>
+  </si>
+  <si>
+    <t>Experimentation of both Motion and Ultrasonic sensors on arduino</t>
+  </si>
+  <si>
+    <t>Survey on relative Language that can be used for arduino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -302,21 +475,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -328,7 +486,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,12 +549,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF568FD4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,6 +575,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,128 +785,177 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT266"/>
+  <dimension ref="A1:IT262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1199,10 +1418,10 @@
       <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="13"/>
@@ -1211,38 +1430,38 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="62"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
     </row>
@@ -1250,19 +1469,19 @@
       <c r="A5" s="4">
         <v>42624</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1270,19 +1489,19 @@
       <c r="A6" s="5">
         <v>42626</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1290,17 +1509,17 @@
       <c r="A7" s="5">
         <v>42628</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1308,17 +1527,17 @@
       <c r="A8" s="5">
         <v>42629</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1326,17 +1545,17 @@
       <c r="A9" s="5">
         <v>42630</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1350,29 +1569,29 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>42631</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1380,17 +1599,17 @@
       <c r="A13" s="5">
         <v>42636</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1404,31 +1623,31 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>42638</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1436,19 +1655,19 @@
       <c r="A17" s="5">
         <v>42643</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1464,31 +1683,31 @@
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>42645</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1501,32 +1720,32 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>287</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="38" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1534,17 +1753,17 @@
       <c r="A24" s="5">
         <v>42657</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1558,29 +1777,29 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>290</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="33" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1588,17 +1807,17 @@
       <c r="A28" s="5">
         <v>42662</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="33" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1606,17 +1825,17 @@
       <c r="A29" s="5">
         <v>42663</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="46" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="42" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1624,17 +1843,17 @@
       <c r="A30" s="5">
         <v>42664</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1642,17 +1861,17 @@
       <c r="A31" s="5">
         <v>42665</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="29" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1666,301 +1885,631 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="B33" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>42667</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>42668</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>42669</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>42670</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>42671</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="64"/>
+      <c r="F38" s="62" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="5">
+        <v>42672</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="70"/>
+      <c r="F39" s="42" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="5">
+        <v>42673</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="70"/>
+      <c r="F40" s="42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
+      <c r="B41" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="5">
+        <v>42674</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="42" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
+      <c r="A43" s="5">
+        <v>42675</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="70"/>
+      <c r="F43" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>42676</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>42677</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="F45" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>42679</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="64"/>
+      <c r="F46" s="62" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="5">
+        <v>42680</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="70"/>
+      <c r="F47" s="42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="B48" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="56"/>
+      <c r="A49" s="5">
+        <v>42681</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="71" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="5">
+        <v>42682</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="70"/>
+      <c r="F50" s="42" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="5">
+        <v>42683</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="70"/>
+      <c r="F51" s="42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="5">
+        <v>42684</v>
+      </c>
+      <c r="B52" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="73"/>
+      <c r="F52" s="71" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>42685</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>42687</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60"/>
+      <c r="B55" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>42688</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="73"/>
+      <c r="F56" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>42689</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="74"/>
+      <c r="F57" s="42" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="A58" s="5">
+        <v>42690</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="73"/>
+      <c r="F58" s="71" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="A59" s="5">
+        <v>42691</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="A60" s="5">
+        <v>42692</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="64"/>
+      <c r="F60" s="62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>42693</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="5">
+        <v>42694</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="70"/>
+      <c r="F62" s="42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+      <c r="B63" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+    </row>
+    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>42695</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="64"/>
+      <c r="F64" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>42696</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="64"/>
+      <c r="F65" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>42697</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>42699</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>42700</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="64"/>
+      <c r="F68" s="62" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="A69" s="5">
+        <v>42701</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="70"/>
+      <c r="F69" s="42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
@@ -1970,11 +2519,11 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
     </row>
@@ -2002,18 +2551,18 @@
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="19"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -2021,7 +2570,7 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
@@ -2037,23 +2586,23 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -2062,30 +2611,30 @@
       <c r="A82" s="5"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="19"/>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -2093,16 +2642,16 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="20"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
     </row>
@@ -2110,15 +2659,15 @@
       <c r="A88" s="5"/>
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
     </row>
@@ -2126,7 +2675,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
@@ -2134,23 +2683,23 @@
       <c r="A91" s="5"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
     </row>
@@ -2158,14 +2707,14 @@
       <c r="A94" s="5"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -2181,23 +2730,23 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
@@ -2205,7 +2754,7 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
@@ -2214,15 +2763,15 @@
       <c r="A101" s="5"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="18"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
     </row>
@@ -2258,11 +2807,11 @@
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="18"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
     </row>
@@ -2290,11 +2839,11 @@
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
     </row>
@@ -2302,7 +2851,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
-      <c r="D112" s="18"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
     </row>
@@ -2310,7 +2859,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
-      <c r="D113" s="18"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
     </row>
@@ -2318,7 +2867,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
-      <c r="D114" s="18"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
     </row>
@@ -2330,11 +2879,11 @@
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="18"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
     </row>
@@ -2362,11 +2911,11 @@
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="18"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
     </row>
@@ -2402,11 +2951,11 @@
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
     </row>
@@ -2434,11 +2983,11 @@
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="18"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
     </row>
@@ -2474,11 +3023,11 @@
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="18"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
@@ -2506,11 +3055,11 @@
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
     </row>
-    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="18"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
     </row>
@@ -2546,11 +3095,11 @@
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
     </row>
@@ -2578,11 +3127,11 @@
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="18"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
     </row>
@@ -2618,11 +3167,11 @@
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="18"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
     </row>
@@ -2650,11 +3199,11 @@
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="18"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
     </row>
@@ -2690,45 +3239,45 @@
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
+      <c r="C161" s="61"/>
+      <c r="D161" s="61"/>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-    </row>
-    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
@@ -2762,11 +3311,11 @@
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="60"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
@@ -2794,11 +3343,11 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="63"/>
-      <c r="D174" s="63"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
@@ -2834,11 +3383,11 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="60"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
@@ -2866,11 +3415,11 @@
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
@@ -2898,43 +3447,43 @@
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="63"/>
-      <c r="D191" s="63"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
@@ -2971,36 +3520,16 @@
       <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
+      <c r="A196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
+      <c r="A197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
+      <c r="A198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
+      <c r="A199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
@@ -3191,51 +3720,38 @@
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="B57:F57"/>
+  <mergeCells count="30">
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B55:F55"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B48:F48"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/WBS-2.xlsx
+++ b/WBS-2.xlsx
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Creation of github account and Work on agile method.</t>
-  </si>
-  <si>
-    <t>Learning about JDBC</t>
   </si>
   <si>
     <t>Updation of SRS and WBS to GITHUB</t>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>Survey on relative Language that can be used for arduino</t>
+  </si>
+  <si>
+    <t>TSE on JDBC</t>
   </si>
 </sst>
 </file>
@@ -849,57 +849,6 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -956,6 +905,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1430,38 +1430,38 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="57"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
     </row>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -1623,13 +1623,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1683,13 +1683,13 @@
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1723,30 +1723,30 @@
       <c r="A22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>287</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
@@ -1754,17 +1754,17 @@
         <v>42657</v>
       </c>
       <c r="B24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,13 +1777,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1808,13 +1808,13 @@
         <v>42662</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="29" t="s">
@@ -1826,17 +1826,17 @@
         <v>42663</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="44" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>68</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,17 +1844,17 @@
         <v>42664</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="29" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -1862,17 +1862,17 @@
         <v>42665</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,102 +1885,102 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="B33" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>42667</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="63" t="s">
+      <c r="B34" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="E34" s="47"/>
+      <c r="F34" s="48" t="s">
         <v>90</v>
-      </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>42668</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65" t="s">
-        <v>91</v>
+      <c r="B35" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>42669</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65" t="s">
-        <v>91</v>
+      <c r="B36" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>42670</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="62" t="s">
-        <v>91</v>
+      <c r="B37" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>42671</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="D38" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="62" t="s">
-        <v>91</v>
+      <c r="E38" s="47"/>
+      <c r="F38" s="45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1988,17 +1988,17 @@
         <v>42672</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="70"/>
+        <v>75</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="53"/>
       <c r="F39" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,45 +2006,45 @@
         <v>42673</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="70"/>
+        <v>82</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="53"/>
       <c r="F40" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
+      <c r="B41" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="78"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>42674</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="70"/>
+        <v>75</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="53"/>
       <c r="F42" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,73 +2052,73 @@
         <v>42675</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="70"/>
+        <v>76</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="53"/>
       <c r="F43" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42676</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="D44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="48" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42677</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="D45" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="48" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="65" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>42679</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="67" t="s">
+      <c r="E46" s="47"/>
+      <c r="F46" s="45" t="s">
         <v>121</v>
-      </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,45 +2126,45 @@
         <v>42680</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="53"/>
       <c r="F47" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
+      <c r="B48" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="78"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>42681</v>
       </c>
-      <c r="B49" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="71" t="s">
-        <v>78</v>
+      <c r="B49" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,17 +2172,17 @@
         <v>42682</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="70"/>
+        <v>78</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="53"/>
       <c r="F50" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2190,35 +2190,35 @@
         <v>42683</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="53"/>
       <c r="F51" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>42684</v>
       </c>
-      <c r="B52" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="71" t="s">
-        <v>78</v>
+      <c r="B52" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2226,17 +2226,17 @@
         <v>42685</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="74"/>
+        <v>78</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="57"/>
       <c r="F53" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2244,81 +2244,81 @@
         <v>42687</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="74"/>
+        <v>79</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="57"/>
       <c r="F54" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="55"/>
+      <c r="B55" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>42688</v>
       </c>
-      <c r="B56" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="71" t="s">
-        <v>81</v>
+      <c r="B56" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="56"/>
+      <c r="F56" s="54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>42689</v>
       </c>
-      <c r="B57" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="74"/>
+      <c r="B57" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="57"/>
       <c r="F57" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>42690</v>
       </c>
-      <c r="B58" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="71" t="s">
-        <v>81</v>
+      <c r="B58" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="F58" s="54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,53 +2326,53 @@
         <v>42691</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>42692</v>
       </c>
-      <c r="B60" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="79" t="s">
+      <c r="B60" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="62" t="s">
+      <c r="C60" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="62" t="s">
         <v>101</v>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="45" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>42693</v>
       </c>
-      <c r="B61" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="80" t="s">
+      <c r="B61" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47" t="s">
         <v>99</v>
-      </c>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,117 +2380,117 @@
         <v>42694</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="70"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="53"/>
       <c r="F62" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="59"/>
+      <c r="B63" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="69"/>
     </row>
     <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42695</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="82" t="s">
+      <c r="E64" s="47"/>
+      <c r="F64" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42696</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="67" t="s">
+      <c r="E65" s="47"/>
+      <c r="F65" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42697</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="67" t="s">
+      <c r="E66" s="47"/>
+      <c r="F66" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42699</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="D67" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="62" t="s">
-        <v>111</v>
+      <c r="E67" s="47"/>
+      <c r="F67" s="45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42700</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="D68" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="67" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="62" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,17 +2498,17 @@
         <v>42701</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="70"/>
+        <v>82</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="53"/>
       <c r="F69" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,8 +2522,8 @@
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
     </row>
@@ -2594,8 +2594,8 @@
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
     </row>
@@ -2666,8 +2666,8 @@
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
     </row>
@@ -2738,8 +2738,8 @@
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
@@ -2810,8 +2810,8 @@
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="61"/>
-      <c r="D107" s="61"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
     </row>
@@ -2882,8 +2882,8 @@
     <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="18"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="61"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
     </row>
@@ -2954,8 +2954,8 @@
     <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="61"/>
-      <c r="D125" s="61"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="71"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
     </row>
@@ -3026,8 +3026,8 @@
     <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="18"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="61"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
@@ -3098,8 +3098,8 @@
     <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
     </row>
@@ -3170,8 +3170,8 @@
     <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="18"/>
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
     </row>
@@ -3242,8 +3242,8 @@
     <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="61"/>
-      <c r="D161" s="61"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
     </row>
@@ -3314,8 +3314,8 @@
     <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="60"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
@@ -3386,8 +3386,8 @@
     <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="60"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="70"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
@@ -3450,8 +3450,8 @@
     <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="70"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
@@ -3722,6 +3722,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B41:F41"/>
     <mergeCell ref="B63:F63"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C187:D187"/>
@@ -3737,21 +3752,6 @@
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C143:D143"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/WBS-2.xlsx
+++ b/WBS-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>DATE</t>
   </si>
@@ -181,232 +181,26 @@
     <t>Creation of github account and Work on agile method.</t>
   </si>
   <si>
+    <t>Learning about agile method</t>
+  </si>
+  <si>
+    <t>Stand-up meeting on agile method</t>
+  </si>
+  <si>
+    <t>Learning about JDBC</t>
+  </si>
+  <si>
     <t>Updation of SRS and WBS to GITHUB</t>
   </si>
   <si>
     <t>Updation of Few more functional requirements to SRS version 1.</t>
-  </si>
-  <si>
-    <t>International Journal of Science, Engineering and Technology Research (IJSETR)-Literature survey…….</t>
-  </si>
-  <si>
-    <t>IEEE JOURNAL OF ROBOTICS AND AUTOMATION-Literature Survey……</t>
-  </si>
-  <si>
-    <t>IEEE JOURNAL OF ROBOTICS AND AUTOMATION-Literature Survey…..</t>
-  </si>
-  <si>
-    <t>International Journal of Science, Engineering and Technology Research (IJSETR)-Literature survey ……</t>
-  </si>
-  <si>
-    <t>IEEE JOURNAL OF ROBOTICS AND AUTOMATION-Literature Survey …..</t>
-  </si>
-  <si>
-    <t>International Journal of Science, Engineering and Technology Research (IJSETR)-Literature survey …..</t>
-  </si>
-  <si>
-    <t>International Journal of Science, Engineering and Technology Research (IJSETR)-Literature survey ….</t>
-  </si>
-  <si>
-    <t>Updation of Non-function requirements</t>
-  </si>
-  <si>
-    <t>PM primer Mega event at Nimhans convention center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTT DATA Placement Drive at GAT </t>
-  </si>
-  <si>
-    <t>NTT DATA Placement Drive at GAT</t>
-  </si>
-  <si>
-    <t>NTT DATA Placement Drive at GAT.</t>
-  </si>
-  <si>
-    <t>Stand up meeting on Implementation of Agile methodology.</t>
-  </si>
-  <si>
-    <t>Week 8(Oct 31-Nov 6)</t>
-  </si>
-  <si>
-    <t>Week 7(Oct 23-Oct 30)</t>
-  </si>
-  <si>
-    <t>Week 9(Nov 7-Nov 13)</t>
-  </si>
-  <si>
-    <t>Week 10(Nov 14- Nov 20)</t>
-  </si>
-  <si>
-    <t>Week(Nov 21-Nov 27)</t>
-  </si>
-  <si>
-    <t>Deepavali Holidays</t>
-  </si>
-  <si>
-    <t>Karnataka Rajyotsava -Holiday</t>
-  </si>
-  <si>
-    <t>Preparation for lab internal assesment</t>
-  </si>
-  <si>
-    <t>Lab internal assesment</t>
-  </si>
-  <si>
-    <t>Preparation for third internal assesment</t>
-  </si>
-  <si>
-    <t>Third Internal assesment</t>
-  </si>
-  <si>
-    <t>Kanakadasa Jayanthi-Holiday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Literature survey- IEEE International Conference on Robotics and Automation……</t>
-  </si>
-  <si>
-    <t>IEEE International Conference on Robotics and Automation…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IEEE International Conference on Robotics and Automation…..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IEEE International Conference on Robotics and Automation</t>
-  </si>
-  <si>
-    <t>Literature survey -AlessioCarullo and marco parvis,iEEE</t>
-  </si>
-  <si>
-    <t>Literature survey -AlessioCarullo and marco parvis,iEEE…..</t>
-  </si>
-  <si>
-    <t>Literature Survey-Transactions on Robotics and automation , vol 13….</t>
-  </si>
-  <si>
-    <t>Literature Survey- International Journal of Computer Theory and Engineering Volume-2….</t>
-  </si>
-  <si>
-    <t>Surveying on Components</t>
-  </si>
-  <si>
-    <t>Surveying on relative for Ultrasonic sensor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study on  Realtive sensors over Ultrasonic Sensors </t>
-  </si>
-  <si>
-    <t>Study on efficiency of Ultrasonic sensors over relative sensors</t>
-  </si>
-  <si>
-    <t>Survey on Language used for Arduino Code</t>
-  </si>
-  <si>
-    <t>Purchase of Basic Components</t>
-  </si>
-  <si>
-    <t>Testing Arduino Board</t>
-  </si>
-  <si>
-    <t>Testing Ultrasonic sensor.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Survey on circuit building for sound module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Literature Survey on sound Module</t>
-  </si>
-  <si>
-    <t>Literature Survey on Camera Module</t>
-  </si>
-  <si>
-    <t>Survey on updations that can be done on Project</t>
-  </si>
-  <si>
-    <t>Building Basic Model of the Project</t>
-  </si>
-  <si>
-    <t>Note down the issue during Modeling</t>
-  </si>
-  <si>
-    <t>Note down the Drawbacks causing issues</t>
-  </si>
-  <si>
-    <t>Note down the issue during Modeling…</t>
-  </si>
-  <si>
-    <t>Building Basic Model of the Project…</t>
-  </si>
-  <si>
-    <t>Note down the Drawbacks causing issues…</t>
-  </si>
-  <si>
-    <t>Propose solution to the issues…</t>
-  </si>
-  <si>
-    <t>Propose solution to the issues</t>
-  </si>
-  <si>
-    <t>Presentation of Basic Project model</t>
-  </si>
-  <si>
-    <t>Presentation on Hardware used in Basic model</t>
-  </si>
-  <si>
-    <t>Presentation on Software used in Basic model</t>
-  </si>
-  <si>
-    <t>Presentation on Working of Components</t>
-  </si>
-  <si>
-    <t>Survey on Language used for Arduino Code…</t>
-  </si>
-  <si>
-    <t>Experimentation of Basic LED Blink Code on Arduino Board …</t>
-  </si>
-  <si>
-    <t>Survey on relative Language that can be used for arduino…</t>
-  </si>
-  <si>
-    <t>Experimentation of both Motion and Ultrasonic sensors on arduino…</t>
-  </si>
-  <si>
-    <t>Experimentation of Basic LED Blink Code on Arduino Board</t>
-  </si>
-  <si>
-    <t>Experimentation of both Motion and Ultrasonic sensors on arduino</t>
-  </si>
-  <si>
-    <t>Survey on relative Language that can be used for arduino</t>
-  </si>
-  <si>
-    <t>TSE on JDBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -475,6 +269,21 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -486,7 +295,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +358,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF568FD4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,31 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
@@ -727,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,175 +582,120 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1396,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT262"/>
+  <dimension ref="A1:IT266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1418,10 +1160,10 @@
       <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="13"/>
@@ -1430,38 +1172,38 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="83"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
     </row>
@@ -1469,19 +1211,19 @@
       <c r="A5" s="4">
         <v>42624</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1489,19 +1231,19 @@
       <c r="A6" s="5">
         <v>42626</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1509,17 +1251,17 @@
       <c r="A7" s="5">
         <v>42628</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1527,17 +1269,17 @@
       <c r="A8" s="5">
         <v>42629</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1545,17 +1287,17 @@
       <c r="A9" s="5">
         <v>42630</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1569,29 +1311,29 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>42631</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1599,17 +1341,17 @@
       <c r="A13" s="5">
         <v>42636</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="35" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1623,31 +1365,31 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>42638</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="37" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1655,19 +1397,19 @@
       <c r="A17" s="5">
         <v>42643</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1683,31 +1425,31 @@
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>42645</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="38" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="38" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1720,51 +1462,51 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>287</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>59</v>
+      <c r="B23" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="33" t="s">
-        <v>60</v>
+      <c r="F23" s="40" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>42657</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="33" t="s">
-        <v>63</v>
+      <c r="B24" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="40" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,29 +1519,29 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>290</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="33" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="38" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1807,17 +1549,13 @@
       <c r="A28" s="5">
         <v>42662</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1825,54 +1563,50 @@
       <c r="A29" s="5">
         <v>42663</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="42" t="s">
-        <v>67</v>
+      <c r="B29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>42664</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="29" t="s">
-        <v>122</v>
+      <c r="B30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>42665</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>69</v>
-      </c>
+      <c r="B31" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="29" t="s">
-        <v>55</v>
+      <c r="F31" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,631 +1619,301 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-    </row>
-    <row r="34" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>42667</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>42668</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>42669</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>42670</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>42671</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="45" t="s">
-        <v>90</v>
-      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>42672</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="42" t="s">
-        <v>75</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>42673</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>42674</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="42" t="s">
-        <v>75</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42675</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>42676</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>42677</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="61" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>42679</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="45" t="s">
-        <v>121</v>
-      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>42680</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="42" t="s">
-        <v>77</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="78"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>42681</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="54" t="s">
-        <v>77</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>42682</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="42" t="s">
-        <v>78</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>42683</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="42" t="s">
-        <v>77</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>42684</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="54" t="s">
-        <v>77</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>42685</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>42687</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>42688</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>42689</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="42" t="s">
-        <v>80</v>
-      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="59"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>42690</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="54" t="s">
-        <v>80</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>42691</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60" t="s">
-        <v>81</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>42692</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>42693</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47" t="s">
-        <v>99</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>42694</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="53"/>
-      <c r="F62" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="69"/>
-    </row>
-    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>42695</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>42696</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>42697</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>42699</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>42700</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="45" t="s">
-        <v>114</v>
-      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>42701</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
@@ -2519,11 +1923,11 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
     </row>
@@ -2551,18 +1955,18 @@
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -2570,7 +1974,7 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
@@ -2586,23 +1990,23 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -2611,30 +2015,30 @@
       <c r="A82" s="5"/>
       <c r="B82" s="18"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="18"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="18"/>
-      <c r="F82" s="20"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="18"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -2642,16 +2046,16 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
     </row>
@@ -2659,15 +2063,15 @@
       <c r="A88" s="5"/>
       <c r="B88" s="18"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
     </row>
@@ -2675,7 +2079,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
@@ -2683,23 +2087,23 @@
       <c r="A91" s="5"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
     </row>
@@ -2707,14 +2111,14 @@
       <c r="A94" s="5"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -2730,23 +2134,23 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
@@ -2754,7 +2158,7 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
@@ -2763,15 +2167,15 @@
       <c r="A101" s="5"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
-      <c r="D101" s="18"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="18"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="18"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
     </row>
@@ -2807,11 +2211,11 @@
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
     </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
     </row>
@@ -2839,11 +2243,11 @@
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
     </row>
@@ -2851,7 +2255,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
     </row>
@@ -2859,7 +2263,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
     </row>
@@ -2867,7 +2271,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
     </row>
@@ -2879,11 +2283,11 @@
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="18"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
     </row>
@@ -2911,11 +2315,11 @@
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="18"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
     </row>
@@ -2951,11 +2355,11 @@
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="71"/>
-      <c r="D125" s="71"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
     </row>
@@ -2983,11 +2387,11 @@
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="55"/>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
     </row>
@@ -3023,11 +2427,11 @@
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="18"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
@@ -3055,11 +2459,11 @@
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="18"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
     </row>
@@ -3095,11 +2499,11 @@
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
     </row>
@@ -3127,11 +2531,11 @@
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
     </row>
@@ -3167,11 +2571,11 @@
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
     </row>
-    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="18"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
     </row>
@@ -3199,11 +2603,11 @@
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
     </row>
@@ -3239,45 +2643,45 @@
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="71"/>
-      <c r="D161" s="71"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B164" s="18"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
@@ -3311,11 +2715,11 @@
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
@@ -3343,11 +2747,11 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="62"/>
+      <c r="D174" s="62"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
@@ -3383,11 +2787,11 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="70"/>
-      <c r="D179" s="70"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
@@ -3415,11 +2819,11 @@
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="62"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
@@ -3447,43 +2851,43 @@
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
+      <c r="C191" s="62"/>
+      <c r="D191" s="62"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
@@ -3520,16 +2924,36 @@
       <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
@@ -3720,38 +3144,51 @@
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
     </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B55:F55"/>
+  <mergeCells count="31">
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:F57"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
